--- a/tutorial.xlsx
+++ b/tutorial.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>1. git clone + ссылка на репозиторий</t>
+    <t>клонируем с гит хаба</t>
   </si>
   <si>
-    <t>клонируем с гит хаба</t>
+    <t>git add + название файла</t>
+  </si>
+  <si>
+    <t>git commit -m</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>git clone + ссылка на репозиторий</t>
   </si>
 </sst>
 </file>
@@ -361,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,10 +384,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
